--- a/data/financial_statements/socf/ABT.xlsx
+++ b/data/financial_statements/socf/ABT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,1494 +593,1497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-5900000000</v>
+      </c>
+      <c r="C2">
         <v>1435000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2018000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2447000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1989000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2100000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1189000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1793000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2162000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1232000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>537000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>564000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1049000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>960000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1006000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>672000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>654000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>563000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>733000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>418000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-828000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>603000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>283000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>419000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>798000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>-329000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>615000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>316000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>767000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>580000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>784000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2292000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>904000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>539000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>466000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>375000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>589000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>966000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>477000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>544000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>815000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>822000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>823000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>883000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>847000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>874000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>934000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>866000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>808000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>825000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>828000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>756000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>754000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>751000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>753000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>763000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>813000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>850000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>884000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>915000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>774000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1078000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1166000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>484000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>340000000</v>
-      </c>
-      <c r="AA3">
-        <v>347000000</v>
       </c>
       <c r="AB3">
         <v>347000000</v>
       </c>
       <c r="AC3">
+        <v>347000000</v>
+      </c>
+      <c r="AD3">
         <v>366000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>383000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>352000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>371000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>395000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>355000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>400000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>398000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>426000000</v>
-      </c>
-      <c r="AL3">
-        <v>436000000</v>
       </c>
       <c r="AM3">
         <v>436000000</v>
       </c>
       <c r="AN3">
+        <v>436000000</v>
+      </c>
+      <c r="AO3">
         <v>421000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>123000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>142000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>305000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>161000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>114000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>132000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>288000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>523000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>100000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>115000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>233000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>332000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>94000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>114000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>226000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>374000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>83000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>101000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>212000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>70000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>63000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>92000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>-980000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>132000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1000000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>62000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>604000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>22000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>27000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-149000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-2673000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>125000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>40000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>49000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>119000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>44000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>45000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>51000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>126000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>530000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-188000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-751000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-189000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-394000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>35000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>165000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-581000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-470000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>231000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-104000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>82000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-22000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-165000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-170000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>90000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-143000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-84000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-53000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-38000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-113000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-86000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>30000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-61000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>34000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-146000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-4000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-20000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-26000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-35000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-90000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-22000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-97000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-158000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>82000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-135000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>113000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-81000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-194000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-476000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-554000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>71000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-5000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-537000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>345000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>149000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-550000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-437000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>137000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-190000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-254000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-286000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-64000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-114000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-165000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-171000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>210000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>166000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>35000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-162000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>54000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-3000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-54000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-95000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-44000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-3000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-82000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-128000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-94000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-62000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-51000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-90000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>88000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-10000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-100000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-132000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>1288000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4066000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1766000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3189000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3335000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3181000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>220000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>747000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>615000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-652000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-742000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-225000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-436000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
         <v>-908000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-614000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-545000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-214000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1149000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-699000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>957000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>197000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-665000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>71000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>92000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-205000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-312000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-37000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-97000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-6000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-627000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>247000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>164000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-369000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-138000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>23000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>109000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>113000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>57000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>30000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>131000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>71000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>92000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-205000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-37000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-97000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-6000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>247000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>164000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-369000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>352000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-392000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-483000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>981000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-191000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-182000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>512000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-51000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>101000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>175000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>85000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-1261000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>234000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>71000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>230000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>426000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>194000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-548000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-1028000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-66000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-489000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>2780000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2410000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2065000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3067000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2701000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2128000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2637000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3798000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2066000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1322000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>715000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2416000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1948000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1060000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>712000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1765000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2183000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1244000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1108000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1640000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2005000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1351000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>574000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1170000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1217000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>909000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-93000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>828000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1195000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>941000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1238000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1201000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>900000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>336000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1625000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>522000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>717000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>460000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-467000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-379000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-321000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-614000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-461000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-413000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-397000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-679000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-496000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-642000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-360000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-434000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-401000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-468000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-335000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-467000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-354000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-298000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-275000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-345000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-263000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-255000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-272000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-319000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-312000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-247000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-243000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-248000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-411000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-216000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-235000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-287000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-277000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-258000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-255000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-303000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-277000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-291000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-274000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>48000000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>-86000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>48000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-15000000</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>16000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-11000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-34000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-78000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-11000000</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>30000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-25000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-3556000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1953000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1923000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-7555000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-7000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-66000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-7000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>25000000</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
       <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>-231000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>2286000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>230000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-490000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-2822000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-14000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-566000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-21000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>59000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-41000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-108000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>95000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-14000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>17000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-32000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-36000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-24000000</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>2000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>19000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-37000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-5000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-70000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-28000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-800000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-2626000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3358000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15">
         <v>-96000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-14000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-73000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-36000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-82000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-58000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-81000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-15000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1868000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-982000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>446000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-821000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-1843000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-213000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>4117000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1486000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-367000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1155000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-1873000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>327000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-1834000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>4000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7000000</v>
-      </c>
-      <c r="K16">
-        <v>3000000</v>
       </c>
       <c r="L16">
         <v>3000000</v>
       </c>
       <c r="M16">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="N16">
         <v>4000000</v>
@@ -1975,1039 +2092,1039 @@
         <v>4000000</v>
       </c>
       <c r="P16">
+        <v>4000000</v>
+      </c>
+      <c r="Q16">
         <v>15000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>17000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>12000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>6000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>67000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>732000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1980000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-1661000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1688000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>8000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>6000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>30000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-2000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>9000000</v>
-      </c>
-      <c r="AD16">
-        <v>15000000</v>
       </c>
       <c r="AE16">
         <v>15000000</v>
       </c>
       <c r="AF16">
+        <v>15000000</v>
+      </c>
+      <c r="AG16">
         <v>13000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>8000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>35000000</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <v>27000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>19000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-484000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-264000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-360000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-671000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-651000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-264000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-422000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-731000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-472000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-619000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-393000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-489000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-432000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-498000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-396000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-496000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-323000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-299000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-238000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-3152000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-306000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-6000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-6154000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1550000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-554000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-1470000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>226000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1566000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-1197000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>242000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-205000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-10000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-825000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1228000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-595000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>840000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-2697000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>36000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-2108000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>24000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>10000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-743000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-196000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-67000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-7000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>22000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-1000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-1357000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1258000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>50000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-1128000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>10000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-487000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-4204000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2894000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-1167000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-5973000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>990000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>24000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-3960000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>13848000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-398000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>295000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-590000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>717000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-504000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-70000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1004000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-503000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>397000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-341000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1213000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-1732000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>374000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>902000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2248000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-741000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-2248000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-892000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-509000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-454000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-189000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-145000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>81000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>53000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-147000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-489000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>46000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>113000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-90000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-77000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>71000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>30000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>9000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>64000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>81000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>54000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>34000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>42000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>74000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>42000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-432000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-837000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>48000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>56000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-1190000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>138000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>63000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>55000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-2022000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>176000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-313000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-217000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-856000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="U20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20">
         <v>-710000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-826000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-828000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-832000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-798000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-801000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-803000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-800000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-641000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-639000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-642000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-638000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-568000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-569000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-568000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-565000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-495000000</v>
-      </c>
-      <c r="R21">
-        <v>-494000000</v>
       </c>
       <c r="S21">
         <v>-494000000</v>
       </c>
       <c r="T21">
+        <v>-494000000</v>
+      </c>
+      <c r="U21">
         <v>-491000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-464000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-463000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-462000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-460000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-386000000</v>
-      </c>
-      <c r="Z21">
-        <v>-384000000</v>
       </c>
       <c r="AA21">
         <v>-384000000</v>
       </c>
       <c r="AB21">
+        <v>-384000000</v>
+      </c>
+      <c r="AC21">
         <v>-385000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-360000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-359000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-360000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-364000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-335000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-331000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-333000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-343000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-218000000</v>
-      </c>
-      <c r="AL21">
-        <v>-220000000</v>
       </c>
       <c r="AM21">
         <v>-220000000</v>
       </c>
       <c r="AN21">
+        <v>-220000000</v>
+      </c>
+      <c r="AO21">
         <v>-224000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>123000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>142000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>305000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>161000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>114000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>132000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>288000000</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>-11000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>233000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>332000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>8000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-8000000</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>-13000000</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
       <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
         <v>-38000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-132000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-25000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-17000000</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
         <v>-400000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-95000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-400000000</v>
       </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
       <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>-5901000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-1543000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-813000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-3823000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-1886000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-1377000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-1264000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-967000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-787000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-1915000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>658000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-735000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-2185000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-513000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-449000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-1142000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-4776000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2471000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-1631000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-6455000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-112000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-386000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-384000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>-4399000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>13504000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-746000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-179000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-1432000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-497000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-815000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-374000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-550000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-700000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-271000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-619000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-1152000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-1869000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-559000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>465000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-4733000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>-96000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-71000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-6000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-13000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-29000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-32000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>78000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>38000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>25000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-70000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>27000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-49000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>4000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-18000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-27000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-106000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>35000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>19000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>24000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>8000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>65000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-104000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>5000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-16000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-368000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-28000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-99000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>13000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-84000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-78000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-62000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-4000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-3000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>44000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-19000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-48000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>657000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1262000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-2124000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>497000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>644000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>604000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1216000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2358000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-283000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1386000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-483000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-231000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>954000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>115000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-822000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-3525000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>4304000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-792000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-5550000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-1605000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1337000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>969000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-9914000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>16120000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-78000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-756000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-1667000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1869000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-916000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>822000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-837000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>450000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>43000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1510000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-1415000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>593000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-2690000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1199000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-6429000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>9799000000</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -3015,11 +3132,11 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>6838000000</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
@@ -3027,11 +3144,11 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>3860000000</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
@@ -3039,11 +3156,11 @@
         <v>0</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>3844000000</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0</v>
       </c>
@@ -3051,11 +3168,11 @@
         <v>0</v>
       </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>9407000000</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
         <v>0</v>
       </c>
@@ -3063,11 +3180,11 @@
         <v>0</v>
       </c>
       <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>18620000000</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
         <v>0</v>
       </c>
@@ -3075,11 +3192,11 @@
         <v>0</v>
       </c>
       <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>5001000000</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
       <c r="AD26">
         <v>0</v>
       </c>
@@ -3087,11 +3204,11 @@
         <v>0</v>
       </c>
       <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>4063000000</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
       <c r="AH26">
         <v>0</v>
       </c>
@@ -3099,11 +3216,11 @@
         <v>0</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <v>3475000000</v>
       </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
       <c r="AL26">
         <v>0</v>
       </c>
@@ -3111,982 +3228,988 @@
         <v>0</v>
       </c>
       <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
         <v>10802000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>657000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1262000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>7675000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>497000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>644000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>604000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>8054000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2358000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-283000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1386000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3377000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-231000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>954000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>115000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3022000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-3525000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>4304000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-792000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>3857000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-1605000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1337000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>969000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>8706000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>16120000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-78000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-756000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3334000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1869000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-916000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>822000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>3226000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>450000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>43000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1510000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>2060000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>593000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-2690000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1199000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>4373000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>123000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>142000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>305000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>106000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>114000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>132000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>288000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>98000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>100000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>115000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>233000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>85000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>94000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>114000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>226000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>81000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>83000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>101000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>212000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>68000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>75000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>92000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>171000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>47000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>49000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>62000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>152000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>43000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>44000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>57000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>148000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>38000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>40000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>49000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>119000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>40000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>45000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>51000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>126000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2486000000</v>
+      </c>
+      <c r="C29">
         <v>-826000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-828000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-832000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-798000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-801000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-803000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-800000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-641000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-639000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-642000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-638000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-568000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-569000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-568000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-565000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-495000000</v>
-      </c>
-      <c r="R29">
-        <v>-494000000</v>
       </c>
       <c r="S29">
         <v>-494000000</v>
       </c>
       <c r="T29">
+        <v>-494000000</v>
+      </c>
+      <c r="U29">
         <v>-491000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-464000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-463000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-462000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-460000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-386000000</v>
-      </c>
-      <c r="Z29">
-        <v>-384000000</v>
       </c>
       <c r="AA29">
         <v>-384000000</v>
       </c>
       <c r="AB29">
+        <v>-384000000</v>
+      </c>
+      <c r="AC29">
         <v>-385000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-360000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-359000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-360000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-364000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-335000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-331000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-333000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-343000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-218000000</v>
-      </c>
-      <c r="AL29">
-        <v>-220000000</v>
       </c>
       <c r="AM29">
         <v>-220000000</v>
       </c>
       <c r="AN29">
+        <v>-220000000</v>
+      </c>
+      <c r="AO29">
         <v>-224000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>0.0384</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.0392</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.0428</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.036</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0415</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.0454</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.0464</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.0587</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.07049999999999999</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.0891</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.1032</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.0898</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.0982</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.1045</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.111</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.1202</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.1211</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.1591</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.1726</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.177</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.1348</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.1652</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.1943</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.0331</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.0236</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.0273</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.0327</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-0.0037</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-0.0026</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-0.0721</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-0.0555</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-0.0148</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-0.0152</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-0.0592</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-0.0619</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-0.07870000000000001</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-0.0959</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-0.1046</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-0.0862</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>336000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-664000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-1305000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-106000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-323000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>30000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-372000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>289000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-321000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-319000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-541000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-244000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-212000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-419000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-456000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>582000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-257000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-249000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-224000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>2045000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>53000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-51000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-132000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-1245000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>31000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-200000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-99000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>208000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-29000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-117000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-218000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-114000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-159000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-209000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-8000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-1017000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>103000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-181000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-142000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-21000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>59000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-41000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-69000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-108000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>95000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-14000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-58000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>17000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>4000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-36000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-60000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-24000000</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>2000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-35000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>19000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-37000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-5000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>17000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-70000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-13000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-15000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1868000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-182000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-1246000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>446000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1805000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-570000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-1843000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-213000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>759000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2239000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1486000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-367000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1155000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-1873000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>327000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-1834000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>-741000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>5000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-2248000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-892000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-509000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-454000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-189000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-145000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>81000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>53000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-147000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-489000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>46000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>113000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-90000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-77000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>71000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>30000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>9000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-646000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>81000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>54000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>34000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>42000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>74000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>42000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-432000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-837000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>48000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>56000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-1190000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>138000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>63000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>55000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-2022000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>176000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-313000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-217000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-856000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>-741000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>5000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-2248000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-892000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-509000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-454000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-189000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-145000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>81000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>53000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-147000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-489000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>46000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>113000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-90000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-77000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>71000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>30000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>9000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-646000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>81000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>54000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>34000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>42000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>74000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>42000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-432000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-837000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>48000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>56000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-1190000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>138000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>63000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>55000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>-2022000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>176000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-313000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-217000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-856000000</v>
       </c>
     </row>
